--- a/Document/표준/Specification.xlsx
+++ b/Document/표준/Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="정의" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1206,12 +1206,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1219,7 +1213,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,191 +1225,192 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1425,9 +1420,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1438,9 +1431,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1449,9 +1440,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1462,9 +1451,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1473,9 +1460,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1486,9 +1471,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1499,9 +1482,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1510,9 +1491,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1521,9 +1500,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1538,33 +1515,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1579,9 +1548,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1596,9 +1563,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1613,17 +1578,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -1632,9 +1593,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1713,10 +1672,10 @@
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1725,68 +1684,68 @@
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1955,25 +1914,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2330,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3451,9 +3392,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A144" tabSelected="1" workbookViewId="0">
       <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
@@ -4027,18 +3968,18 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="44"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="52" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4071,7 +4012,7 @@
       <c r="F40" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4116,7 +4057,7 @@
       <c r="F43" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4131,7 +4072,7 @@
       <c r="F44" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4163,7 +4104,7 @@
       <c r="F46" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4208,7 +4149,7 @@
       <c r="F49" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="56" t="s">
+      <c r="G49" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4223,7 +4164,7 @@
       <c r="F50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4255,7 +4196,7 @@
       <c r="F52" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4300,7 +4241,7 @@
       <c r="F55" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="56" t="s">
+      <c r="G55" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4315,7 +4256,7 @@
       <c r="F56" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="56" t="s">
+      <c r="G56" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4347,7 +4288,7 @@
       <c r="F58" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="56" t="s">
+      <c r="G58" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4392,7 +4333,7 @@
       <c r="F61" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="56" t="s">
+      <c r="G61" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4407,7 +4348,7 @@
       <c r="F62" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="56" t="s">
+      <c r="G62" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4422,7 +4363,7 @@
       <c r="F63" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="56" t="s">
+      <c r="G63" s="52" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4437,7 +4378,7 @@
       <c r="F64" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G64" s="56" t="s">
+      <c r="G64" s="52" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4514,7 +4455,7 @@
       <c r="F69" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G69" s="56" t="s">
+      <c r="G69" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4546,7 +4487,7 @@
       <c r="F71" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G71" s="56" t="s">
+      <c r="G71" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4591,7 +4532,7 @@
       <c r="F74" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G74" s="56" t="s">
+      <c r="G74" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4606,7 +4547,7 @@
       <c r="F75" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G75" s="56" t="s">
+      <c r="G75" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4638,7 +4579,7 @@
       <c r="F77" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="56" t="s">
+      <c r="G77" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4683,7 +4624,7 @@
       <c r="F80" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="56" t="s">
+      <c r="G80" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4698,7 +4639,7 @@
       <c r="F81" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G81" s="56" t="s">
+      <c r="G81" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4730,7 +4671,7 @@
       <c r="F83" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G83" s="56" t="s">
+      <c r="G83" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4775,7 +4716,7 @@
       <c r="F86" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G86" s="56" t="s">
+      <c r="G86" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4790,7 +4731,7 @@
       <c r="F87" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G87" s="56" t="s">
+      <c r="G87" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4822,7 +4763,7 @@
       <c r="F89" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G89" s="56" t="s">
+      <c r="G89" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4867,7 +4808,7 @@
       <c r="F92" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G92" s="56" t="s">
+      <c r="G92" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4882,7 +4823,7 @@
       <c r="F93" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="56" t="s">
+      <c r="G93" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4914,7 +4855,7 @@
       <c r="F95" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G95" s="56" t="s">
+      <c r="G95" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4959,7 +4900,7 @@
       <c r="F98" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="56" t="s">
+      <c r="G98" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4974,7 +4915,7 @@
       <c r="F99" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G99" s="56" t="s">
+      <c r="G99" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5006,7 +4947,7 @@
       <c r="F101" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="56" t="s">
+      <c r="G101" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5051,7 +4992,7 @@
       <c r="F104" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G104" s="56" t="s">
+      <c r="G104" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5066,7 +5007,7 @@
       <c r="F105" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G105" s="56" t="s">
+      <c r="G105" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5098,7 +5039,7 @@
       <c r="F107" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G107" s="56" t="s">
+      <c r="G107" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5143,7 +5084,7 @@
       <c r="F110" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="56" t="s">
+      <c r="G110" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5158,7 +5099,7 @@
       <c r="F111" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G111" s="56" t="s">
+      <c r="G111" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5190,7 +5131,7 @@
       <c r="F113" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G113" s="56" t="s">
+      <c r="G113" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5235,7 +5176,7 @@
       <c r="F116" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="56" t="s">
+      <c r="G116" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5250,7 +5191,7 @@
       <c r="F117" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G117" s="56" t="s">
+      <c r="G117" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5282,7 +5223,7 @@
       <c r="F119" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G119" s="56" t="s">
+      <c r="G119" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5327,7 +5268,7 @@
       <c r="F122" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="56" t="s">
+      <c r="G122" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5342,7 +5283,7 @@
       <c r="F123" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="56" t="s">
+      <c r="G123" s="52" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5374,7 +5315,7 @@
       <c r="F125" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G125" s="56" t="s">
+      <c r="G125" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5419,11 +5360,11 @@
       <c r="F128" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G128" s="56" t="s">
+      <c r="G128" s="52" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:12">
       <c r="A129" s="44"/>
       <c r="D129" s="24" t="s">
         <v>66</v>
@@ -5434,11 +5375,11 @@
       <c r="F129" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G129" s="56" t="s">
+      <c r="G129" s="52" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:12">
       <c r="A130" s="44"/>
       <c r="D130" s="24" t="s">
         <v>66</v>
@@ -5453,24 +5394,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:12">
       <c r="A131" s="44"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="60" t="s">
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E131" s="61" t="s">
+      <c r="E131" s="27" t="s">
         <v>38</v>
       </c>
       <c r="F131" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G131" s="56" t="s">
+      <c r="G131" s="52" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:12">
       <c r="A132" s="44"/>
       <c r="D132" s="24" t="s">
         <v>51</v>
@@ -5485,7 +5426,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:12">
       <c r="A133" s="44"/>
       <c r="D133" s="24" t="s">
         <v>51</v>
@@ -5500,7 +5441,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:12">
       <c r="A134" s="44"/>
       <c r="D134" s="24" t="s">
         <v>51</v>
@@ -5511,11 +5452,11 @@
       <c r="F134" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G134" s="56" t="s">
+      <c r="G134" s="52" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:12">
       <c r="A135" s="44"/>
       <c r="D135" s="24" t="s">
         <v>69</v>
@@ -5526,11 +5467,11 @@
       <c r="F135" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G135" s="62" t="s">
+      <c r="G135" s="51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:12">
       <c r="A136" s="44"/>
       <c r="D136" s="24" t="s">
         <v>69</v>
@@ -5545,7 +5486,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:12">
       <c r="E137" s="36" t="s">
         <v>273</v>
       </c>
@@ -5556,7 +5497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:12">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
@@ -5573,7 +5514,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:12">
       <c r="A139" s="43"/>
       <c r="D139" s="24" t="s">
         <v>148</v>
@@ -5588,7 +5529,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:12">
       <c r="A140" s="43"/>
       <c r="D140" s="24" t="s">
         <v>148</v>
@@ -5603,7 +5544,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:12">
       <c r="A141" s="43"/>
       <c r="D141" s="24" t="s">
         <v>148</v>
@@ -5618,7 +5559,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:12">
       <c r="A142" s="43"/>
       <c r="D142" s="24" t="s">
         <v>148</v>
@@ -5633,7 +5574,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:12">
       <c r="A143" s="43"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42"/>
@@ -5646,11 +5587,11 @@
       <c r="F143" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="G143" s="56" t="s">
+      <c r="G143" s="52" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:12">
       <c r="A144" s="43"/>
       <c r="B144" s="42"/>
       <c r="D144" s="24" t="s">
@@ -5666,7 +5607,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:12">
       <c r="A145" s="43"/>
       <c r="B145" s="42"/>
       <c r="D145" s="24" t="s">
@@ -5682,7 +5623,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:12">
       <c r="A146" s="43"/>
       <c r="B146" s="42"/>
       <c r="D146" s="24" t="s">
@@ -5698,7 +5639,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:12">
       <c r="A147" s="43"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42"/>
@@ -5711,11 +5652,11 @@
       <c r="F147" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="G147" s="56" t="s">
+      <c r="G147" s="52" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:12">
       <c r="A148" s="43"/>
       <c r="B148" s="42"/>
       <c r="D148" s="24" t="s">
@@ -5731,7 +5672,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:12">
       <c r="A149" s="43"/>
       <c r="B149" s="42"/>
       <c r="D149" s="24" t="s">
@@ -5747,7 +5688,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:12">
       <c r="A150" s="43"/>
       <c r="B150" s="42"/>
       <c r="D150" s="24" t="s">
@@ -5763,7 +5704,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:12">
       <c r="A151" s="43"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42"/>
@@ -5776,11 +5717,11 @@
       <c r="F151" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="G151" s="56" t="s">
+      <c r="G151" s="52" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:12">
       <c r="A152" s="43"/>
       <c r="B152" s="42"/>
       <c r="D152" s="24" t="s">
@@ -5796,7 +5737,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:12">
       <c r="A153" s="43"/>
       <c r="B153" s="42"/>
       <c r="D153" s="24" t="s">
@@ -5812,7 +5753,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:12">
       <c r="A154" s="43"/>
       <c r="B154" s="42"/>
       <c r="D154" s="24" t="s">
@@ -5828,7 +5769,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:12">
       <c r="A155" s="43"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42"/>
@@ -5841,11 +5782,11 @@
       <c r="F155" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="G155" s="56" t="s">
+      <c r="G155" s="52" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:12">
       <c r="A156" s="43"/>
       <c r="B156" s="42"/>
       <c r="D156" s="24" t="s">
@@ -5861,7 +5802,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:12">
       <c r="A157" s="43"/>
       <c r="B157" s="42"/>
       <c r="D157" s="24" t="s">
@@ -5873,11 +5814,11 @@
       <c r="F157" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G157" s="56" t="s">
+      <c r="G157" s="52" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:12">
       <c r="A158" s="43"/>
       <c r="B158" s="42"/>
       <c r="D158" s="24" t="s">
@@ -5893,7 +5834,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:12">
       <c r="D159" s="24"/>
       <c r="E159" s="23" t="s">
         <v>303</v>

--- a/Document/표준/Specification.xlsx
+++ b/Document/표준/Specification.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dosel\Desktop\4-1\종프2\레포지토리\Document\표준\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17575988-F7CE-4DFF-B345-E0F8B8A0BD83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정의" sheetId="1" r:id="rId1"/>
     <sheet name="예시" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="320">
   <si>
     <t>SIG</t>
   </si>
@@ -446,9 +451,6 @@
     <t>key of criterion</t>
   </si>
   <si>
-    <t>4/8+l</t>
-  </si>
-  <si>
     <t>기준 식별자</t>
   </si>
   <si>
@@ -570,9 +572,6 @@
     <t>author</t>
   </si>
   <si>
-    <t>1+37</t>
-  </si>
-  <si>
     <t>Kroenke, K; Spitzer, RL; Williams, JB</t>
   </si>
   <si>
@@ -666,9 +665,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>2+4</t>
-  </si>
-  <si>
     <t>위통</t>
   </si>
   <si>
@@ -700,9 +696,6 @@
   </si>
   <si>
     <t>2+21</t>
-  </si>
-  <si>
-    <t>MINDLE 표준 3안</t>
   </si>
   <si>
     <t>00
@@ -872,30 +865,18 @@
     <t>n_C</t>
   </si>
   <si>
-    <t>[무조건?]0[등호?][&gt;?]</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>0000</t>
   </si>
   <si>
-    <t>4/8+7</t>
-  </si>
-  <si>
     <t>minimal</t>
   </si>
   <si>
-    <t>4/8+4</t>
-  </si>
-  <si>
     <t>mild</t>
   </si>
   <si>
-    <t>4/8+8</t>
-  </si>
-  <si>
     <t>moderate</t>
   </si>
   <si>
@@ -908,9 +889,6 @@
     <t>+15</t>
   </si>
   <si>
-    <t>4/8+6</t>
-  </si>
-  <si>
     <t>severe</t>
   </si>
   <si>
@@ -953,9 +931,6 @@
     <t>(검사합)</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>since</t>
   </si>
   <si>
@@ -965,18 +940,9 @@
     <t>2002년 4월</t>
   </si>
   <si>
-    <t>1+12</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>예시v2</t>
-  </si>
-  <si>
-    <t>예시ve</t>
-  </si>
-  <si>
     <t>예시v3</t>
   </si>
   <si>
@@ -989,18 +955,6 @@
     <t>2+6</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>CMB</t>
-  </si>
-  <si>
     <t>여기서부터 질문입니다.</t>
   </si>
   <si>
@@ -1013,9 +967,6 @@
     <t>기타 참고 사항</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -1025,9 +976,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>[무조건?]0000[등호?][&gt;?]</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1049,372 +997,151 @@
     <t>10000000</t>
   </si>
   <si>
-    <t>MINDLE 표준 4안</t>
-  </si>
-  <si>
-    <t>2</t>
+    <r>
+      <t>[무조건?]00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00[등호?][&gt;?]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINDLE 표준 4안 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="major"/>
-      <color theme="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1502,272 +1229,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1779,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -1800,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1812,10 +1308,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1827,148 +1323,118 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="2" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="3">
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2268,35 +1734,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="7" width="8.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="8" width="26.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="18" width="8.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="8" width="35.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="12" width="35.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="35.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="8.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="18" customWidth="1"/>
+    <col min="5" max="5" width="35" style="8" customWidth="1"/>
+    <col min="6" max="6" width="35" style="12" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.500000" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="17.250000" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +1802,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2354,7 +1820,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +1835,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
@@ -2390,7 +1856,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
@@ -2411,7 +1877,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
@@ -2429,7 +1895,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>90</v>
       </c>
@@ -2446,7 +1912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>93</v>
       </c>
@@ -2463,7 +1929,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>118</v>
       </c>
@@ -2480,33 +1946,32 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2523,7 +1988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -2540,17 +2005,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" ht="67.550000">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -2570,17 +2035,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.300000">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2598,17 +2063,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2625,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
@@ -2642,17 +2107,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -2669,7 +2134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -2686,7 +2151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="50.800000">
+    <row r="26" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -2700,23 +2165,23 @@
         <v>54</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2733,7 +2198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -2753,7 +2218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>56</v>
       </c>
@@ -2773,17 +2238,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>66</v>
       </c>
@@ -2800,67 +2265,67 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="B35" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="C35" s="15" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="31" t="s">
+      <c r="D35" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
+      <c r="F35" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="31" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>69</v>
       </c>
@@ -2878,7 +2343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>69</v>
       </c>
@@ -2892,23 +2357,23 @@
         <v>57</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="1:6" ht="34.050000">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+    </row>
+    <row r="40" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>109</v>
       </c>
@@ -2922,13 +2387,13 @@
         <v>88</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>109</v>
       </c>
@@ -2942,13 +2407,13 @@
         <v>121</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>109</v>
       </c>
@@ -2965,19 +2430,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="31" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>127</v>
@@ -2992,12 +2457,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>77</v>
@@ -3012,17 +2477,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>113</v>
       </c>
@@ -3039,7 +2504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>113</v>
       </c>
@@ -3056,7 +2521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>113</v>
       </c>
@@ -3076,7 +2541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>113</v>
       </c>
@@ -3096,119 +2561,119 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="31" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
-    </row>
-    <row r="52" spans="1:6" ht="34.050000">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54"/>
+    </row>
+    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="1:6" ht="67.550000">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
+    </row>
+    <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E54" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F54" s="21" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.300000">
-      <c r="A55" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F55" s="21" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="17.300000">
-      <c r="A56" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="E56" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>162</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="31" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>127</v>
@@ -3223,9 +2688,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>130</v>
@@ -3240,9 +2705,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>128</v>
@@ -3260,12 +2725,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>119</v>
@@ -3280,19 +2745,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="31" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="1:6" ht="17.300000">
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>137</v>
@@ -3301,18 +2766,18 @@
         <v>138</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>329</v>
+        <v>310</v>
+      </c>
+      <c r="E63" s="58" t="s">
+        <v>318</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>29</v>
@@ -3324,18 +2789,18 @@
         <v>87</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>58</v>
@@ -3344,185 +2809,186 @@
         <v>80</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A62:F62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="2.50500000" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="24" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="23" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="25" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="51" width="61.25500107" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="3" width="2.5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9" style="23" customWidth="1"/>
+    <col min="6" max="6" width="9" style="25" customWidth="1"/>
+    <col min="7" max="7" width="61.25" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="0" customFormat="1" ht="16.500000" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53" t="s">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="0" customFormat="1" ht="16.500000" customHeight="1">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2"/>
       <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="25">
         <v>6</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="25">
         <v>2</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>172</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="25">
         <v>2</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" s="35" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="F8" s="25">
         <v>1</v>
       </c>
-      <c r="G8" s="51" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="34" t="s">
+      <c r="G8" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="40"/>
-      <c r="C10" s="50"/>
+        <v>172</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="24" t="s">
         <v>32</v>
       </c>
@@ -3530,32 +2996,32 @@
         <v>35</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="40"/>
-      <c r="C12" s="50"/>
+        <v>297</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="24" t="s">
         <v>32</v>
       </c>
@@ -3563,27 +3029,27 @@
         <v>35</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>302</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="G13" s="45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="26" t="s">
         <v>48</v>
       </c>
@@ -3593,12 +3059,12 @@
       <c r="F14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="44"/>
+      <c r="G14" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
       <c r="D15" s="24" t="s">
         <v>50</v>
       </c>
@@ -3606,14 +3072,14 @@
         <v>44</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
       <c r="D16" s="24" t="s">
         <v>50</v>
       </c>
@@ -3621,16 +3087,16 @@
         <v>42</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+        <v>184</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="26" t="s">
         <v>48</v>
       </c>
@@ -3640,12 +3106,12 @@
       <c r="F17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="44"/>
+      <c r="G17" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
       <c r="D18" s="24" t="s">
         <v>50</v>
       </c>
@@ -3653,14 +3119,14 @@
         <v>44</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
       <c r="D19" s="24" t="s">
         <v>50</v>
       </c>
@@ -3668,16 +3134,16 @@
         <v>42</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+        <v>187</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="26" t="s">
         <v>48</v>
       </c>
@@ -3687,12 +3153,12 @@
       <c r="F20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="44"/>
+      <c r="G20" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
       <c r="D21" s="24" t="s">
         <v>113</v>
       </c>
@@ -3702,12 +3168,12 @@
       <c r="F21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="44"/>
+      <c r="G21" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
       <c r="D22" s="24" t="s">
         <v>113</v>
       </c>
@@ -3717,12 +3183,12 @@
       <c r="F22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
       <c r="D23" s="24" t="s">
         <v>113</v>
       </c>
@@ -3732,61 +3198,61 @@
       <c r="F23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
       <c r="D24" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="38" t="s">
-        <v>192</v>
+      <c r="E24" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
       <c r="D26" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>196</v>
+      <c r="E26" s="41" t="s">
+        <v>194</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
+      <c r="G26" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
       <c r="D27" s="24" t="s">
         <v>109</v>
       </c>
@@ -3794,82 +3260,82 @@
         <v>42</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
+        <v>192</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
       <c r="D29" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>196</v>
+      <c r="E29" s="41" t="s">
+        <v>194</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="47" t="s">
+      <c r="G29" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>127</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="45" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="48"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
+        <v>224</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
       <c r="D32" s="24" t="s">
         <v>109</v>
       </c>
@@ -3877,82 +3343,82 @@
         <v>42</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="32" t="s">
         <v>73</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
+        <v>192</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="D34" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="47" t="s">
-        <v>196</v>
+      <c r="E34" s="41" t="s">
+        <v>194</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="47" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="41" t="s">
         <v>127</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G35" s="45" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="48"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
+      <c r="G36" s="45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
       <c r="D37" s="24" t="s">
         <v>109</v>
       </c>
@@ -3960,16 +3426,16 @@
         <v>42</v>
       </c>
       <c r="F37" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G37" s="51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="26" t="s">
         <v>48</v>
       </c>
@@ -3979,13 +3445,13 @@
       <c r="F38" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="52" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="44"/>
-      <c r="B39" s="50"/>
+      <c r="G38" s="46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="44"/>
       <c r="D39" s="24" t="s">
         <v>49</v>
       </c>
@@ -3993,16 +3459,16 @@
         <v>42</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+        <v>305</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="26" t="s">
         <v>48</v>
       </c>
@@ -4012,12 +3478,12 @@
       <c r="F40" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="44"/>
+      <c r="G40" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
       <c r="D41" s="24" t="s">
         <v>51</v>
       </c>
@@ -4025,14 +3491,14 @@
         <v>44</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
       <c r="D42" s="24" t="s">
         <v>51</v>
       </c>
@@ -4040,14 +3506,14 @@
         <v>42</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="44"/>
+        <v>303</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
       <c r="D43" s="24" t="s">
         <v>51</v>
       </c>
@@ -4057,12 +3523,12 @@
       <c r="F43" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="44"/>
+      <c r="G43" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
       <c r="D44" s="24" t="s">
         <v>66</v>
       </c>
@@ -4072,29 +3538,29 @@
       <c r="F44" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="44"/>
+      <c r="G44" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
       <c r="D45" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
+      <c r="G45" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="26" t="s">
         <v>48</v>
       </c>
@@ -4104,12 +3570,12 @@
       <c r="F46" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="44"/>
+      <c r="G46" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
       <c r="D47" s="24" t="s">
         <v>51</v>
       </c>
@@ -4117,14 +3583,14 @@
         <v>44</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
       <c r="D48" s="24" t="s">
         <v>51</v>
       </c>
@@ -4132,14 +3598,14 @@
         <v>42</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G48" s="51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="44"/>
+        <v>212</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
       <c r="D49" s="24" t="s">
         <v>51</v>
       </c>
@@ -4149,12 +3615,12 @@
       <c r="F49" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="44"/>
+      <c r="G49" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
       <c r="D50" s="24" t="s">
         <v>66</v>
       </c>
@@ -4164,29 +3630,29 @@
       <c r="F50" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="44"/>
+      <c r="G50" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
       <c r="D51" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
+      <c r="G51" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="26" t="s">
         <v>48</v>
       </c>
@@ -4196,12 +3662,12 @@
       <c r="F52" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G52" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="44"/>
+      <c r="G52" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
       <c r="D53" s="24" t="s">
         <v>51</v>
       </c>
@@ -4209,14 +3675,14 @@
         <v>44</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
       <c r="D54" s="24" t="s">
         <v>51</v>
       </c>
@@ -4224,14 +3690,14 @@
         <v>42</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="51" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="44"/>
+        <v>215</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
       <c r="D55" s="24" t="s">
         <v>51</v>
       </c>
@@ -4241,12 +3707,12 @@
       <c r="F55" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="44"/>
+      <c r="G55" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
       <c r="D56" s="24" t="s">
         <v>66</v>
       </c>
@@ -4256,29 +3722,29 @@
       <c r="F56" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="44"/>
+      <c r="G56" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
       <c r="D57" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G57" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
+      <c r="G57" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="26" t="s">
         <v>48</v>
       </c>
@@ -4288,12 +3754,12 @@
       <c r="F58" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="44"/>
+      <c r="G58" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
       <c r="D59" s="24" t="s">
         <v>51</v>
       </c>
@@ -4301,14 +3767,14 @@
         <v>44</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G59" s="51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
       <c r="D60" s="24" t="s">
         <v>51</v>
       </c>
@@ -4316,14 +3782,14 @@
         <v>42</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="G60" s="51" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="44"/>
+        <v>218</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
       <c r="D61" s="24" t="s">
         <v>51</v>
       </c>
@@ -4333,12 +3799,12 @@
       <c r="F61" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="44"/>
+      <c r="G61" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
       <c r="D62" s="24" t="s">
         <v>66</v>
       </c>
@@ -4348,44 +3814,44 @@
       <c r="F62" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="44"/>
+      <c r="G62" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="38"/>
       <c r="D63" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="44"/>
+      <c r="G63" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
       <c r="D64" s="24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G64" s="52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
+      <c r="G64" s="46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="26" t="s">
         <v>48</v>
       </c>
@@ -4395,12 +3861,12 @@
       <c r="F65" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="44"/>
+      <c r="G65" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
       <c r="D66" s="24" t="s">
         <v>51</v>
       </c>
@@ -4408,14 +3874,14 @@
         <v>44</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G66" s="51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="38"/>
       <c r="D67" s="24" t="s">
         <v>51</v>
       </c>
@@ -4423,14 +3889,14 @@
         <v>42</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="G67" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="44"/>
+        <v>239</v>
+      </c>
+      <c r="G67" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="38"/>
       <c r="D68" s="24" t="s">
         <v>51</v>
       </c>
@@ -4440,12 +3906,12 @@
       <c r="F68" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G68" s="51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="44"/>
+      <c r="G68" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="38"/>
       <c r="D69" s="24" t="s">
         <v>66</v>
       </c>
@@ -4455,29 +3921,29 @@
       <c r="F69" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G69" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="44"/>
+      <c r="G69" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
       <c r="D70" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
+      <c r="G70" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="26" t="s">
         <v>48</v>
       </c>
@@ -4487,12 +3953,12 @@
       <c r="F71" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G71" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="44"/>
+      <c r="G71" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="38"/>
       <c r="D72" s="24" t="s">
         <v>51</v>
       </c>
@@ -4500,14 +3966,14 @@
         <v>44</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G72" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
       <c r="D73" s="24" t="s">
         <v>51</v>
       </c>
@@ -4515,14 +3981,14 @@
         <v>42</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="G73" s="51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="44"/>
+        <v>239</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="38"/>
       <c r="D74" s="24" t="s">
         <v>51</v>
       </c>
@@ -4532,12 +3998,12 @@
       <c r="F74" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G74" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="44"/>
+      <c r="G74" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="38"/>
       <c r="D75" s="24" t="s">
         <v>66</v>
       </c>
@@ -4547,29 +4013,29 @@
       <c r="F75" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G75" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="44"/>
+      <c r="G75" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="38"/>
       <c r="D76" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G76" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
+      <c r="G76" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="26" t="s">
         <v>48</v>
       </c>
@@ -4579,12 +4045,12 @@
       <c r="F77" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="44"/>
+      <c r="G77" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="38"/>
       <c r="D78" s="24" t="s">
         <v>51</v>
       </c>
@@ -4592,14 +4058,14 @@
         <v>44</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" s="51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="38"/>
       <c r="D79" s="24" t="s">
         <v>51</v>
       </c>
@@ -4607,14 +4073,14 @@
         <v>42</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="G79" s="51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="44"/>
+        <v>244</v>
+      </c>
+      <c r="G79" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="38"/>
       <c r="D80" s="24" t="s">
         <v>51</v>
       </c>
@@ -4624,12 +4090,12 @@
       <c r="F80" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="44"/>
+      <c r="G80" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="38"/>
       <c r="D81" s="24" t="s">
         <v>66</v>
       </c>
@@ -4639,29 +4105,29 @@
       <c r="F81" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G81" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="44"/>
+      <c r="G81" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="38"/>
       <c r="D82" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G82" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
+      <c r="G82" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="26" t="s">
         <v>48</v>
       </c>
@@ -4671,12 +4137,12 @@
       <c r="F83" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G83" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="44"/>
+      <c r="G83" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="38"/>
       <c r="D84" s="24" t="s">
         <v>51</v>
       </c>
@@ -4684,14 +4150,14 @@
         <v>44</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G84" s="51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G84" s="45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="38"/>
       <c r="D85" s="24" t="s">
         <v>51</v>
       </c>
@@ -4699,14 +4165,14 @@
         <v>42</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G85" s="51" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="44"/>
+        <v>247</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="38"/>
       <c r="D86" s="24" t="s">
         <v>51</v>
       </c>
@@ -4716,12 +4182,12 @@
       <c r="F86" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G86" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="44"/>
+      <c r="G86" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="38"/>
       <c r="D87" s="24" t="s">
         <v>66</v>
       </c>
@@ -4731,29 +4197,29 @@
       <c r="F87" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G87" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="44"/>
+      <c r="G87" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="38"/>
       <c r="D88" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G88" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
+      <c r="G88" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="26" t="s">
         <v>48</v>
       </c>
@@ -4763,12 +4229,12 @@
       <c r="F89" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G89" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="44"/>
+      <c r="G89" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="38"/>
       <c r="D90" s="24" t="s">
         <v>51</v>
       </c>
@@ -4776,14 +4242,14 @@
         <v>44</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G90" s="51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G90" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="38"/>
       <c r="D91" s="24" t="s">
         <v>51</v>
       </c>
@@ -4791,14 +4257,14 @@
         <v>42</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G91" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="44"/>
+        <v>247</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
       <c r="D92" s="24" t="s">
         <v>51</v>
       </c>
@@ -4808,12 +4274,12 @@
       <c r="F92" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G92" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="44"/>
+      <c r="G92" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="38"/>
       <c r="D93" s="24" t="s">
         <v>66</v>
       </c>
@@ -4823,29 +4289,29 @@
       <c r="F93" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="44"/>
+      <c r="G93" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="38"/>
       <c r="D94" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
+      <c r="G94" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="38"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="26" t="s">
         <v>48</v>
       </c>
@@ -4855,12 +4321,12 @@
       <c r="F95" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G95" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="44"/>
+      <c r="G95" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
       <c r="D96" s="24" t="s">
         <v>51</v>
       </c>
@@ -4868,14 +4334,14 @@
         <v>44</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G96" s="51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="44"/>
+        <v>251</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="38"/>
       <c r="D97" s="24" t="s">
         <v>51</v>
       </c>
@@ -4883,14 +4349,14 @@
         <v>42</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="G97" s="51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="44"/>
+        <v>253</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="38"/>
       <c r="D98" s="24" t="s">
         <v>51</v>
       </c>
@@ -4900,12 +4366,12 @@
       <c r="F98" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G98" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="44"/>
+      <c r="G98" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="38"/>
       <c r="D99" s="24" t="s">
         <v>66</v>
       </c>
@@ -4915,29 +4381,29 @@
       <c r="F99" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G99" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="44"/>
+      <c r="G99" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="38"/>
       <c r="D100" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F100" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G100" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="44"/>
+      <c r="G100" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="38"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="26" t="s">
         <v>48</v>
       </c>
@@ -4947,12 +4413,12 @@
       <c r="F101" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="44"/>
+      <c r="G101" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="38"/>
       <c r="D102" s="24" t="s">
         <v>51</v>
       </c>
@@ -4960,14 +4426,14 @@
         <v>44</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G102" s="51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="44"/>
+        <v>251</v>
+      </c>
+      <c r="G102" s="45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="38"/>
       <c r="D103" s="24" t="s">
         <v>51</v>
       </c>
@@ -4975,14 +4441,14 @@
         <v>42</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="G103" s="51" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="44"/>
+        <v>256</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="38"/>
       <c r="D104" s="24" t="s">
         <v>51</v>
       </c>
@@ -4992,12 +4458,12 @@
       <c r="F104" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G104" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="44"/>
+      <c r="G104" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="38"/>
       <c r="D105" s="24" t="s">
         <v>66</v>
       </c>
@@ -5007,29 +4473,29 @@
       <c r="F105" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G105" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="44"/>
+      <c r="G105" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="38"/>
       <c r="D106" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F106" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G106" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
+      <c r="G106" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="26" t="s">
         <v>48</v>
       </c>
@@ -5039,12 +4505,12 @@
       <c r="F107" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G107" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="44"/>
+      <c r="G107" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="38"/>
       <c r="D108" s="24" t="s">
         <v>51</v>
       </c>
@@ -5052,14 +4518,14 @@
         <v>44</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G108" s="51" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="44"/>
+        <v>251</v>
+      </c>
+      <c r="G108" s="45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="38"/>
       <c r="D109" s="24" t="s">
         <v>51</v>
       </c>
@@ -5067,14 +4533,14 @@
         <v>42</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="G109" s="51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="44"/>
+        <v>259</v>
+      </c>
+      <c r="G109" s="45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="38"/>
       <c r="D110" s="24" t="s">
         <v>51</v>
       </c>
@@ -5084,12 +4550,12 @@
       <c r="F110" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G110" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="44"/>
+      <c r="G110" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="38"/>
       <c r="D111" s="24" t="s">
         <v>66</v>
       </c>
@@ -5099,29 +4565,29 @@
       <c r="F111" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G111" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="44"/>
+      <c r="G111" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="38"/>
       <c r="D112" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G112" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="44"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
+      <c r="G112" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
       <c r="D113" s="26" t="s">
         <v>48</v>
       </c>
@@ -5131,12 +4597,12 @@
       <c r="F113" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G113" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="44"/>
+      <c r="G113" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="38"/>
       <c r="D114" s="24" t="s">
         <v>51</v>
       </c>
@@ -5144,14 +4610,14 @@
         <v>44</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G114" s="51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="44"/>
+        <v>251</v>
+      </c>
+      <c r="G114" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="38"/>
       <c r="D115" s="24" t="s">
         <v>51</v>
       </c>
@@ -5159,14 +4625,14 @@
         <v>42</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="G115" s="51" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="44"/>
+        <v>262</v>
+      </c>
+      <c r="G115" s="45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="38"/>
       <c r="D116" s="24" t="s">
         <v>51</v>
       </c>
@@ -5176,12 +4642,12 @@
       <c r="F116" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="44"/>
+      <c r="G116" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="38"/>
       <c r="D117" s="24" t="s">
         <v>66</v>
       </c>
@@ -5191,29 +4657,29 @@
       <c r="F117" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G117" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="44"/>
+      <c r="G117" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="38"/>
       <c r="D118" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F118" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G118" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="44"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="44"/>
+      <c r="G118" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
       <c r="D119" s="26" t="s">
         <v>48</v>
       </c>
@@ -5223,12 +4689,12 @@
       <c r="F119" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G119" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="44"/>
+      <c r="G119" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="38"/>
       <c r="D120" s="24" t="s">
         <v>51</v>
       </c>
@@ -5236,14 +4702,14 @@
         <v>44</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G120" s="51" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="44"/>
+        <v>251</v>
+      </c>
+      <c r="G120" s="45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="38"/>
       <c r="D121" s="24" t="s">
         <v>51</v>
       </c>
@@ -5251,14 +4717,14 @@
         <v>42</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="G121" s="51" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="44"/>
+        <v>265</v>
+      </c>
+      <c r="G121" s="45" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="38"/>
       <c r="D122" s="24" t="s">
         <v>51</v>
       </c>
@@ -5268,12 +4734,12 @@
       <c r="F122" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G122" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="44"/>
+      <c r="G122" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="38"/>
       <c r="D123" s="24" t="s">
         <v>66</v>
       </c>
@@ -5283,29 +4749,29 @@
       <c r="F123" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="44"/>
+      <c r="G123" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="38"/>
       <c r="D124" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G124" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="44"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
+      <c r="G124" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="38"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
       <c r="D125" s="26" t="s">
         <v>48</v>
       </c>
@@ -5315,12 +4781,12 @@
       <c r="F125" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G125" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="44"/>
+      <c r="G125" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="38"/>
       <c r="D126" s="24" t="s">
         <v>51</v>
       </c>
@@ -5328,14 +4794,14 @@
         <v>44</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G126" s="51" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="44"/>
+        <v>251</v>
+      </c>
+      <c r="G126" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="38"/>
       <c r="D127" s="24" t="s">
         <v>51</v>
       </c>
@@ -5343,14 +4809,14 @@
         <v>42</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G127" s="51" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="44"/>
+        <v>268</v>
+      </c>
+      <c r="G127" s="45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="38"/>
       <c r="D128" s="24" t="s">
         <v>51</v>
       </c>
@@ -5360,12 +4826,12 @@
       <c r="F128" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G128" s="52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="44"/>
+      <c r="G128" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="38"/>
       <c r="D129" s="24" t="s">
         <v>66</v>
       </c>
@@ -5375,29 +4841,29 @@
       <c r="F129" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G129" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="44"/>
+      <c r="G129" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="38"/>
       <c r="D130" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F130" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G130" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="44"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
+      <c r="G130" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
       <c r="D131" s="26" t="s">
         <v>48</v>
       </c>
@@ -5407,12 +4873,12 @@
       <c r="F131" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G131" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="44"/>
+      <c r="G131" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="38"/>
       <c r="D132" s="24" t="s">
         <v>51</v>
       </c>
@@ -5420,14 +4886,14 @@
         <v>44</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="G132" s="51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="44"/>
+        <v>181</v>
+      </c>
+      <c r="G132" s="45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="38"/>
       <c r="D133" s="24" t="s">
         <v>51</v>
       </c>
@@ -5435,14 +4901,14 @@
         <v>42</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G133" s="51" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="44"/>
+        <v>247</v>
+      </c>
+      <c r="G133" s="45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="38"/>
       <c r="D134" s="24" t="s">
         <v>51</v>
       </c>
@@ -5452,12 +4918,12 @@
       <c r="F134" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G134" s="52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="44"/>
+      <c r="G134" s="46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="38"/>
       <c r="D135" s="24" t="s">
         <v>69</v>
       </c>
@@ -5467,12 +4933,12 @@
       <c r="F135" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G135" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="44"/>
+      <c r="G135" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="38"/>
       <c r="D136" s="24" t="s">
         <v>69</v>
       </c>
@@ -5482,42 +4948,42 @@
       <c r="F136" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G136" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="E137" s="36" t="s">
-        <v>273</v>
+      <c r="G136" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E137" s="30" t="s">
+        <v>269</v>
       </c>
       <c r="F137" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="G137" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G137" s="45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="39" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="37"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E138" s="36" t="s">
-        <v>144</v>
+      <c r="E138" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="F138" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G138" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="43"/>
+      <c r="G138" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="37"/>
       <c r="D139" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>127</v>
@@ -5525,29 +4991,29 @@
       <c r="F139" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G139" s="51" t="s">
+      <c r="G139" s="45" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="43"/>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="37"/>
       <c r="D140" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G140" s="51" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="43"/>
+        <v>172</v>
+      </c>
+      <c r="G140" s="45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="37"/>
       <c r="D141" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E141" s="23" t="s">
         <v>128</v>
@@ -5555,63 +5021,63 @@
       <c r="F141" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G141" s="51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="43"/>
+      <c r="G141" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="37"/>
       <c r="D142" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E142" s="37" t="s">
-        <v>277</v>
+        <v>147</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>273</v>
       </c>
       <c r="F142" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G142" s="51" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="43"/>
-      <c r="B143" s="42"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143" s="37" t="s">
+      <c r="G142" s="45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="37"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G143" s="52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="43"/>
-      <c r="B144" s="42"/>
+        <v>311</v>
+      </c>
+      <c r="G143" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="37"/>
+      <c r="B144" s="36"/>
       <c r="D144" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="G144" s="51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="43"/>
-      <c r="B145" s="42"/>
+        <v>312</v>
+      </c>
+      <c r="G144" s="45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="37"/>
+      <c r="B145" s="36"/>
       <c r="D145" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>35</v>
@@ -5619,64 +5085,64 @@
       <c r="F145" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G145" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="43"/>
-      <c r="B146" s="42"/>
+      <c r="G145" s="45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="37"/>
+      <c r="B146" s="36"/>
       <c r="D146" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="G146" s="51" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="43"/>
-      <c r="B147" s="42"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E147" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G146" s="45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="37"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G147" s="52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="43"/>
-      <c r="B148" s="42"/>
+        <v>311</v>
+      </c>
+      <c r="G147" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="37"/>
+      <c r="B148" s="36"/>
       <c r="D148" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E148" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="G148" s="51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="43"/>
-      <c r="B149" s="42"/>
+        <v>313</v>
+      </c>
+      <c r="G148" s="45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="37"/>
+      <c r="B149" s="36"/>
       <c r="D149" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E149" s="23" t="s">
         <v>35</v>
@@ -5684,64 +5150,64 @@
       <c r="F149" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G149" s="51" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="43"/>
-      <c r="B150" s="42"/>
+      <c r="G149" s="45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="37"/>
+      <c r="B150" s="36"/>
       <c r="D150" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="G150" s="51" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="43"/>
-      <c r="B151" s="42"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E151" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G150" s="45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="37"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E151" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="G151" s="52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="43"/>
-      <c r="B152" s="42"/>
+        <v>314</v>
+      </c>
+      <c r="G151" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="37"/>
+      <c r="B152" s="36"/>
       <c r="D152" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E152" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="G152" s="51" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="43"/>
-      <c r="B153" s="42"/>
+        <v>315</v>
+      </c>
+      <c r="G152" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="37"/>
+      <c r="B153" s="36"/>
       <c r="D153" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>35</v>
@@ -5749,64 +5215,64 @@
       <c r="F153" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G153" s="51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="43"/>
-      <c r="B154" s="42"/>
+      <c r="G153" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="37"/>
+      <c r="B154" s="36"/>
       <c r="D154" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="G154" s="51" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="43"/>
-      <c r="B155" s="42"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E155" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G154" s="45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="37"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155" s="31" t="s">
         <v>137</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="G155" s="52" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="43"/>
-      <c r="B156" s="42"/>
+        <v>314</v>
+      </c>
+      <c r="G155" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="37"/>
+      <c r="B156" s="36"/>
       <c r="D156" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E156" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G156" s="51" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="43"/>
-      <c r="B157" s="42"/>
+        <v>172</v>
+      </c>
+      <c r="G156" s="45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="37"/>
+      <c r="B157" s="36"/>
       <c r="D157" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>35</v>
@@ -5814,36 +5280,35 @@
       <c r="F157" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G157" s="52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="43"/>
-      <c r="B158" s="42"/>
+      <c r="G157" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="37"/>
+      <c r="B158" s="36"/>
       <c r="D158" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="G158" s="51" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="D159" s="24"/>
+        <v>290</v>
+      </c>
+      <c r="G158" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E159" s="23" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="G159" s="51" t="s">
-        <v>304</v>
+        <v>314</v>
+      </c>
+      <c r="G159" s="45" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5316,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>